--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,82 +26,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
-    <t>A</t>
+    <t>i=</t>
   </si>
   <si>
-    <t>А</t>
+    <t>бит</t>
   </si>
   <si>
-    <t>Б</t>
+    <t>K=</t>
   </si>
   <si>
-    <t>В</t>
+    <t>I=</t>
   </si>
   <si>
-    <t>Г</t>
+    <t>(у лукоморья дуб зеленый)</t>
   </si>
   <si>
-    <t>Д</t>
+    <t>байт</t>
   </si>
   <si>
-    <t>Е</t>
+    <t>оценка</t>
   </si>
   <si>
-    <t>Ж</t>
+    <t>вероят</t>
   </si>
   <si>
-    <t>З</t>
+    <t>колво инфы</t>
   </si>
   <si>
-    <t>И</t>
+    <t>число</t>
   </si>
   <si>
-    <t>Й</t>
+    <t>основание</t>
   </si>
   <si>
-    <t>К</t>
+    <t>число в десятичной системе</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>ГДЕ ЕЖИК</t>
+    <t>Схема горнера</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +79,23 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,8 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -411,214 +403,2102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="str">
-        <f>MID(A$14,A1,1)</f>
-        <v>Г</v>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
       </c>
       <c r="H1">
-        <f>MATCH(G1,C:C,1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="str">
-        <f>MID(A$14,A2,1)</f>
-        <v>Д</v>
+      <c r="B2">
+        <f>B$1*A2</f>
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <f>C$1*A2</f>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <f>D$1*A2</f>
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <f>E$1*A2</f>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f>F$1*A2</f>
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <f>G$1*A2</f>
+        <v>14</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H8" si="0">MATCH(G2,C:C,1)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <f>H$1*A2</f>
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <f>I$1*A2</f>
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <f>J$1*A2</f>
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <f>K$1*A2</f>
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <f>L$1*A2</f>
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <f>M$1*A2</f>
+        <v>26</v>
+      </c>
+      <c r="N2">
+        <f>N$1*A2</f>
+        <v>28</v>
+      </c>
+      <c r="O2">
+        <f>O$1*A2</f>
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <f>P$1*A2</f>
+        <v>32</v>
+      </c>
+      <c r="Q2">
+        <f>Q$1*A2</f>
+        <v>34</v>
+      </c>
+      <c r="R2">
+        <f>R$1*A2</f>
+        <v>36</v>
+      </c>
+      <c r="S2">
+        <f>S$1*A2</f>
+        <v>38</v>
+      </c>
+      <c r="T2">
+        <f>T$1*A2</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="str">
-        <f>MID(A$14,A3,1)</f>
-        <v>Е</v>
+      <c r="B3">
+        <f t="shared" ref="B3:C20" si="0">B$1*A3</f>
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C20" si="1">C$1*A3</f>
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D19" si="2">D$1*A3</f>
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E20" si="3">E$1*A3</f>
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F20" si="4">F$1*A3</f>
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G20" si="5">G$1*A3</f>
+        <v>21</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H3:H20" si="6">H$1*A3</f>
+        <v>24</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I20" si="7">I$1*A3</f>
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J20" si="8">J$1*A3</f>
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K20" si="9">K$1*A3</f>
+        <v>33</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L20" si="10">L$1*A3</f>
+        <v>36</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M20" si="11">M$1*A3</f>
+        <v>39</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N20" si="12">N$1*A3</f>
+        <v>42</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O20" si="13">O$1*A3</f>
+        <v>45</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P20" si="14">P$1*A3</f>
+        <v>48</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q20" si="15">Q$1*A3</f>
+        <v>51</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R20" si="16">R$1*A3</f>
+        <v>54</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S20" si="17">S$1*A3</f>
+        <v>57</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T20" si="18">T$1*A3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="str">
-        <f>MID(A$14,A4,1)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="12"/>
+        <v>56</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="14"/>
+        <v>64</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="17"/>
+        <v>76</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="18"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="str">
-        <f>MID(A$14,A5,1)</f>
-        <v>Е</v>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="15"/>
+        <v>85</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="16"/>
+        <v>90</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="17"/>
+        <v>95</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="str">
-        <f>MID(A$14,A6,1)</f>
-        <v>Ж</v>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="10"/>
+        <v>72</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="15"/>
+        <v>102</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="16"/>
+        <v>108</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="17"/>
+        <v>114</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="18"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="str">
-        <f>MID(A$14,A7,1)</f>
-        <v>И</v>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="5"/>
+        <v>49</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="11"/>
+        <v>91</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="12"/>
+        <v>98</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="13"/>
+        <v>105</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="14"/>
+        <v>112</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="15"/>
+        <v>119</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="16"/>
+        <v>126</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="17"/>
+        <v>133</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="18"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="str">
-        <f>MID(A$14,A8,1)</f>
-        <v>К</v>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>56</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="11"/>
+        <v>104</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="12"/>
+        <v>112</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="13"/>
+        <v>120</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="14"/>
+        <v>128</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="15"/>
+        <v>136</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="16"/>
+        <v>144</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="17"/>
+        <v>152</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="18"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="str">
-        <f>MID(A$14,A9,1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="10"/>
+        <v>108</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="11"/>
+        <v>117</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="12"/>
+        <v>126</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="14"/>
+        <v>144</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="15"/>
+        <v>153</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="16"/>
+        <v>162</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="17"/>
+        <v>171</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="18"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="str">
-        <f>MID(A$14,A10,1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="10"/>
+        <v>120</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="12"/>
+        <v>140</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="13"/>
+        <v>150</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="14"/>
+        <v>160</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="15"/>
+        <v>170</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="16"/>
+        <v>180</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="17"/>
+        <v>190</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="8"/>
+        <v>110</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="10"/>
+        <v>132</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="11"/>
+        <v>143</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="12"/>
+        <v>154</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="13"/>
+        <v>165</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="14"/>
+        <v>176</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="15"/>
+        <v>187</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="16"/>
+        <v>198</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="17"/>
+        <v>209</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="18"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="9"/>
+        <v>132</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="11"/>
+        <v>156</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="12"/>
+        <v>168</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="13"/>
+        <v>180</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="14"/>
+        <v>192</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="15"/>
+        <v>204</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="16"/>
+        <v>216</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="17"/>
+        <v>228</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="18"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="7"/>
+        <v>117</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="9"/>
+        <v>143</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="11"/>
+        <v>169</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="12"/>
+        <v>182</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="13"/>
+        <v>195</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="14"/>
+        <v>208</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="15"/>
+        <v>221</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="16"/>
+        <v>234</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="17"/>
+        <v>247</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="18"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="8"/>
+        <v>140</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="9"/>
+        <v>154</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="10"/>
+        <v>168</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="11"/>
+        <v>182</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="12"/>
+        <v>196</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="13"/>
+        <v>210</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="14"/>
+        <v>224</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="15"/>
+        <v>238</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="16"/>
+        <v>252</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="17"/>
+        <v>266</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="18"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>135</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="9"/>
+        <v>165</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="11"/>
+        <v>195</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="12"/>
+        <v>210</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="13"/>
+        <v>225</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="14"/>
+        <v>240</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="15"/>
+        <v>255</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="16"/>
+        <v>270</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="17"/>
+        <v>285</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="18"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="9"/>
+        <v>176</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="10"/>
+        <v>192</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="11"/>
+        <v>208</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="12"/>
+        <v>224</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="13"/>
+        <v>240</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="14"/>
+        <v>256</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="15"/>
+        <v>272</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="16"/>
+        <v>288</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="17"/>
+        <v>304</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="18"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>153</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="8"/>
+        <v>170</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="9"/>
+        <v>187</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="10"/>
+        <v>204</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="11"/>
+        <v>221</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="12"/>
+        <v>238</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="13"/>
+        <v>255</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="14"/>
+        <v>272</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="15"/>
+        <v>289</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="16"/>
+        <v>306</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="17"/>
+        <v>323</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="18"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>162</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="9"/>
+        <v>198</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="10"/>
+        <v>216</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="11"/>
+        <v>234</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="12"/>
+        <v>252</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="13"/>
+        <v>270</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="14"/>
+        <v>288</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="15"/>
+        <v>306</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="16"/>
+        <v>324</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="17"/>
+        <v>342</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="18"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>152</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>171</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="9"/>
+        <v>209</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="10"/>
+        <v>228</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="11"/>
+        <v>247</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="12"/>
+        <v>266</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="13"/>
+        <v>285</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="14"/>
+        <v>304</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="15"/>
+        <v>323</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="16"/>
+        <v>342</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="17"/>
+        <v>361</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="18"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <f>D$1*A20</f>
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="9"/>
+        <v>220</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="10"/>
+        <v>240</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="11"/>
+        <v>260</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="12"/>
+        <v>280</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="13"/>
+        <v>300</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="14"/>
+        <v>320</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="15"/>
+        <v>340</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="16"/>
+        <v>360</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="17"/>
+        <v>380</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="18"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>SUM(A1:A20)</f>
+        <v>210</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:F21" si="19">SUM(B1:B20)</f>
+        <v>420</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="19"/>
+        <v>630</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="19"/>
+        <v>840</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="19"/>
+        <v>1050</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="19"/>
+        <v>1260</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21" si="20">SUM(G1:G20)</f>
+        <v>1470</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21" si="21">SUM(H1:H20)</f>
+        <v>1680</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21" si="22">SUM(I1:I20)</f>
+        <v>1890</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:K21" si="23">SUM(J1:J20)</f>
+        <v>2100</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="23"/>
+        <v>2310</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ref="L21" si="24">SUM(L1:L20)</f>
+        <v>2520</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ref="M21" si="25">SUM(M1:M20)</f>
+        <v>2730</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ref="N21" si="26">SUM(N1:N20)</f>
+        <v>2940</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21:P21" si="27">SUM(O1:O20)</f>
+        <v>3150</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="27"/>
+        <v>3360</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ref="Q21" si="28">SUM(Q1:Q20)</f>
+        <v>3570</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ref="R21" si="29">SUM(R1:R20)</f>
+        <v>3780</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ref="S21" si="30">SUM(S1:S20)</f>
+        <v>3990</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ref="T21" si="31">SUM(T1:T20)</f>
+        <v>4200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>Лист1!A2</f>
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <f>Лист1!A1</f>
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <f>$A$1^B1</f>
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>Лист1!A2</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C20" si="0">$A$1^B2</f>
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <f>LEN(G2)</f>
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>Лист1!A3</f>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f>G1*H2*L3</f>
+        <v>400</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f>IF(H1="бит",1,8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>Лист1!A4</f>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>Лист1!A5</f>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>Лист1!A6</f>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>Лист1!A7</f>
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>Лист1!A8</f>
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>Лист1!A9</f>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>Лист1!A10</f>
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>Лист1!A11</f>
         <v>11</v>
       </c>
-      <c r="G11" t="str">
-        <f>MID(A$14,A11,1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>Лист1!A12</f>
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>Лист1!A13</f>
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>Лист1!A14</f>
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>Лист1!A15</f>
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>Лист1!A16</f>
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>Лист1!A17</f>
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>Лист1!A18</f>
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>Лист1!A19</f>
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>Лист1!A20</f>
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 H1">
+      <formula1>$K$1:$K$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>0.25</v>
+      </c>
+      <c r="E2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <f>LOG(1/B2,2)</f>
+        <v>4.3219280948873626</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:E3" si="0">LOG(1/C2,2)</f>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.73696559416620622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>B5*($B6^5)</f>
+        <v>65536</v>
+      </c>
+      <c r="C7">
+        <f>C5*($B6^4)</f>
+        <v>12288</v>
+      </c>
+      <c r="D7">
+        <f>D5*($B6^3)</f>
+        <v>512</v>
+      </c>
+      <c r="E7">
+        <f>E5*($B6^2)</f>
+        <v>448</v>
+      </c>
+      <c r="F7">
+        <f>F5*($B6^1)</f>
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <f>G5*($B6^0)</f>
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <f>SUM(B7:G7)</f>
+        <v>78821</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>